--- a/RequerimintosLadyWeb.xlsx
+++ b/RequerimintosLadyWeb.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmanr\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E8D6FB31-9979-4122-A139-C6BC15AEE40B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C2FC7E77-5E42-47C1-934B-0F2A53ADAFE8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{152D4973-3EF7-4FD5-AEAB-382F2C2FE3E7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{152D4973-3EF7-4FD5-AEAB-382F2C2FE3E7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Funcional" sheetId="1" r:id="rId1"/>
+    <sheet name="No fucional" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,26 +26,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
   <si>
     <t>Requerimiento</t>
   </si>
   <si>
-    <t>Descripcion</t>
-  </si>
-  <si>
-    <t>Responsiva para android</t>
-  </si>
-  <si>
     <t>Responsiva para escritorio</t>
   </si>
   <si>
-    <t>Responsiva para tablets</t>
-  </si>
-  <si>
-    <t>Ressponsiva para iphone</t>
-  </si>
-  <si>
     <t>Debe tener un login</t>
   </si>
   <si>
@@ -54,55 +43,214 @@
     <t>Debe poderse actualizar la clave de usuario</t>
   </si>
   <si>
-    <t>Debe poderse actualizar toda la informacion</t>
-  </si>
-  <si>
     <t>Debe tener un registro de usuario</t>
   </si>
   <si>
-    <t>Debe tener una galeria de modelos top en el inicio</t>
-  </si>
-  <si>
     <t>El icono debe llevar al inicio</t>
   </si>
   <si>
-    <t xml:space="preserve">Debe tener una version premiun </t>
-  </si>
-  <si>
-    <t>Debe tener una version gratis</t>
-  </si>
-  <si>
-    <t>Ofrecera la posibilidad de chatear con otros contactos</t>
-  </si>
-  <si>
-    <t>La versio gratis podra chatear con pocos nuevos contactos  por dia</t>
-  </si>
-  <si>
-    <t>La version paga podra chatear con muchos nuevos contactos por dia</t>
-  </si>
-  <si>
-    <t>Se podran comprar paquetes especiales para chatear con mas contactos</t>
-  </si>
-  <si>
-    <t>Los usuarios tendran nomre de usuario</t>
-  </si>
-  <si>
-    <t>Los usuarios tendran fotos</t>
-  </si>
-  <si>
-    <t>Los usuarios tendran preferencias</t>
-  </si>
-  <si>
-    <t>Los usuarios tendran descripcion personalizada, en donde se expresaran con sus propias palabras</t>
-  </si>
-  <si>
-    <t>Los usuarios tendran una descripcion sistematizada(Altura, tipo de cuerpo, edad, color de piel, bello corporal…)</t>
-  </si>
-  <si>
-    <t>Podran poner su perfil del color que deseen</t>
-  </si>
-  <si>
-    <t>Advertir a los usuarios que no se debe colocar informacion de contacto por seguridad</t>
+    <t>Mandar correos cuando se mande un mensaje y no este conectado el usuario</t>
+  </si>
+  <si>
+    <t>Debe tener una letra personalizada</t>
+  </si>
+  <si>
+    <t>Hacerla intuitiva</t>
+  </si>
+  <si>
+    <t>Evitar enlaces rotos</t>
+  </si>
+  <si>
+    <t>Incorporar SEO</t>
+  </si>
+  <si>
+    <t>Darle mas importancia al contenido que a la publicidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No obligar de primera mano a registrarse, se debe inducir al registro </t>
+  </si>
+  <si>
+    <t>Actualizar el top de la pagina siempre(top perfiles, fotos, videos o lo que sea)</t>
+  </si>
+  <si>
+    <t>En las preguntas frecuentes no se hace publicidad en las preguntas,</t>
+  </si>
+  <si>
+    <t>No usar flash</t>
+  </si>
+  <si>
+    <t>Formulario de contacto</t>
+  </si>
+  <si>
+    <t>Footers inteligentes</t>
+  </si>
+  <si>
+    <t>Pensar muy bien los keywords para hacer la pagina mas accesible</t>
+  </si>
+  <si>
+    <t>Buscar tendencias en las palabras para elaborar los Keywords</t>
+  </si>
+  <si>
+    <t>Duplicidad de contenido</t>
+  </si>
+  <si>
+    <t>Evitar la redundancia o contenido que no aporte valor, pensar en todo para que sume</t>
+  </si>
+  <si>
+    <t>Enlazar con Twitter</t>
+  </si>
+  <si>
+    <t>Enlazar con Facebook</t>
+  </si>
+  <si>
+    <t>Enlazar con Google</t>
+  </si>
+  <si>
+    <t>Informar que no se compartirá de ningún modo contenido en las redes sociales</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Responsiva para Android</t>
+  </si>
+  <si>
+    <t>Responsiva para Tablet</t>
+  </si>
+  <si>
+    <t>Responsiva para iPhone</t>
+  </si>
+  <si>
+    <t>Debe poderse actualizar toda la información</t>
+  </si>
+  <si>
+    <t>Debe tener una galería de modelos top en el inicio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debe tener una versión premium </t>
+  </si>
+  <si>
+    <t>Debe tener una versión gratis</t>
+  </si>
+  <si>
+    <t>Ofrecerá la posibilidad de chatear con otros contactos</t>
+  </si>
+  <si>
+    <t>La versión paga podrá chatear con muchos nuevos contactos por día</t>
+  </si>
+  <si>
+    <t>La versión gratis podrá chatear con pocos nuevos contactos  por día</t>
+  </si>
+  <si>
+    <t>Se podrán comprar paquetes especiales para chatear con mas contactos</t>
+  </si>
+  <si>
+    <t>Los usuarios tendrán nombre de usuario</t>
+  </si>
+  <si>
+    <t>Los usuarios tendrán fotos</t>
+  </si>
+  <si>
+    <t>Los usuarios tendrán descripción personalizada, en donde se expresaran con sus propias palabras</t>
+  </si>
+  <si>
+    <t>Los usuarios tendrán preferencias</t>
+  </si>
+  <si>
+    <t>Los usuarios tendrán una descripción sistematizada(Altura, tipo de cuerpo, edad, color de piel, bello corporal…)</t>
+  </si>
+  <si>
+    <t>Podrán poner su perfil del color que deseen</t>
+  </si>
+  <si>
+    <t>Advertir a los usuarios que no se debe colocar información de contacto por seguridad</t>
+  </si>
+  <si>
+    <t>Debe haber una versión home sin iniciar sesión que invite con  todo el ímpetu a unirse</t>
+  </si>
+  <si>
+    <t>Barra universal de búsqueda</t>
+  </si>
+  <si>
+    <t>Sección de ayuda</t>
+  </si>
+  <si>
+    <t>Sección de preguntas frecuentes</t>
+  </si>
+  <si>
+    <t>Establecer política de privacidad</t>
+  </si>
+  <si>
+    <t>Iniciar sesión con Google</t>
+  </si>
+  <si>
+    <t>Iniciar sesión con Facebook</t>
+  </si>
+  <si>
+    <t>Iniciar sesión con Twitter</t>
+  </si>
+  <si>
+    <t>los contenidos deben provenir de base datos, y toda la aplicación debe recibirlos por parámetros de bd</t>
+  </si>
+  <si>
+    <t>toda la aplicación debe ser configurada por parámetros de bd</t>
+  </si>
+  <si>
+    <t>Usar imágenes no genéricas</t>
+  </si>
+  <si>
+    <t>La pagina la van a usar personas excitadas/aceleradas, debe tener un rendimiento excelente en su performance</t>
+  </si>
+  <si>
+    <t>sin errores gramáticos</t>
+  </si>
+  <si>
+    <t>Planificar la publicidad para que se vea siempre sin distraer o molestar</t>
+  </si>
+  <si>
+    <t>Ordenar elegantemente el contenido</t>
+  </si>
+  <si>
+    <t>Los multimedia no se deben reproducir automáticamente</t>
+  </si>
+  <si>
+    <t>Hacerla ligera, sin desorden ni exceso de información</t>
+  </si>
+  <si>
+    <t>Localizar la información mas buscada y hacerla mas fácil de acceder</t>
+  </si>
+  <si>
+    <t>Facilitar la estadía con colores agradables</t>
+  </si>
+  <si>
+    <t>Instalar herramientas de medición como Google analíticos o web master tools</t>
+  </si>
+  <si>
+    <t>No hacer que el contenido persiga al usuario(banners por ejemplo)</t>
+  </si>
+  <si>
+    <t>Piensa que los bots de Google son usuarios normales</t>
+  </si>
+  <si>
+    <t>Evitar que la pagina sea de usos múltiples</t>
+  </si>
+  <si>
+    <t>No usar colores psicodélicos</t>
+  </si>
+  <si>
+    <t>Pensar en la aplicación para Google Chrome</t>
+  </si>
+  <si>
+    <t>Títulos que expliquen la pagina</t>
+  </si>
+  <si>
+    <t>No hacer párrafos tan largos</t>
+  </si>
+  <si>
+    <t>Motivar siempre a la acción y/o reacción</t>
+  </si>
+  <si>
+    <t>ofrecer información concisa y puntual de precios y productos</t>
   </si>
 </sst>
 </file>
@@ -457,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBE675A-9AFD-467E-8266-7E3DA57C2A9F}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,47 +622,268 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB5BEDA-8F17-4592-BDB7-DD9376D95610}">
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="68.140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -529,72 +898,122 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/RequerimintosLadyWeb.xlsx
+++ b/RequerimintosLadyWeb.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmanr\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C2FC7E77-5E42-47C1-934B-0F2A53ADAFE8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{727B03B5-F917-487C-A906-7CF36C01E02E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{152D4973-3EF7-4FD5-AEAB-382F2C2FE3E7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{152D4973-3EF7-4FD5-AEAB-382F2C2FE3E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Funcional" sheetId="1" r:id="rId1"/>
-    <sheet name="No fucional" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
-  <si>
-    <t>Requerimiento</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Responsiva para escritorio</t>
   </si>
@@ -52,51 +48,12 @@
     <t>Mandar correos cuando se mande un mensaje y no este conectado el usuario</t>
   </si>
   <si>
-    <t>Debe tener una letra personalizada</t>
-  </si>
-  <si>
-    <t>Hacerla intuitiva</t>
-  </si>
-  <si>
-    <t>Evitar enlaces rotos</t>
-  </si>
-  <si>
-    <t>Incorporar SEO</t>
-  </si>
-  <si>
-    <t>Darle mas importancia al contenido que a la publicidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No obligar de primera mano a registrarse, se debe inducir al registro </t>
-  </si>
-  <si>
-    <t>Actualizar el top de la pagina siempre(top perfiles, fotos, videos o lo que sea)</t>
-  </si>
-  <si>
-    <t>En las preguntas frecuentes no se hace publicidad en las preguntas,</t>
-  </si>
-  <si>
-    <t>No usar flash</t>
-  </si>
-  <si>
     <t>Formulario de contacto</t>
   </si>
   <si>
     <t>Footers inteligentes</t>
   </si>
   <si>
-    <t>Pensar muy bien los keywords para hacer la pagina mas accesible</t>
-  </si>
-  <si>
-    <t>Buscar tendencias en las palabras para elaborar los Keywords</t>
-  </si>
-  <si>
-    <t>Duplicidad de contenido</t>
-  </si>
-  <si>
-    <t>Evitar la redundancia o contenido que no aporte valor, pensar en todo para que sume</t>
-  </si>
-  <si>
     <t>Enlazar con Twitter</t>
   </si>
   <si>
@@ -109,9 +66,6 @@
     <t>Informar que no se compartirá de ningún modo contenido en las redes sociales</t>
   </si>
   <si>
-    <t>Descripción</t>
-  </si>
-  <si>
     <t>Responsiva para Android</t>
   </si>
   <si>
@@ -190,76 +144,102 @@
     <t>Iniciar sesión con Twitter</t>
   </si>
   <si>
-    <t>los contenidos deben provenir de base datos, y toda la aplicación debe recibirlos por parámetros de bd</t>
-  </si>
-  <si>
-    <t>toda la aplicación debe ser configurada por parámetros de bd</t>
-  </si>
-  <si>
-    <t>Usar imágenes no genéricas</t>
-  </si>
-  <si>
-    <t>La pagina la van a usar personas excitadas/aceleradas, debe tener un rendimiento excelente en su performance</t>
-  </si>
-  <si>
-    <t>sin errores gramáticos</t>
-  </si>
-  <si>
-    <t>Planificar la publicidad para que se vea siempre sin distraer o molestar</t>
-  </si>
-  <si>
-    <t>Ordenar elegantemente el contenido</t>
-  </si>
-  <si>
-    <t>Los multimedia no se deben reproducir automáticamente</t>
-  </si>
-  <si>
-    <t>Hacerla ligera, sin desorden ni exceso de información</t>
-  </si>
-  <si>
     <t>Localizar la información mas buscada y hacerla mas fácil de acceder</t>
   </si>
   <si>
-    <t>Facilitar la estadía con colores agradables</t>
-  </si>
-  <si>
-    <t>Instalar herramientas de medición como Google analíticos o web master tools</t>
-  </si>
-  <si>
-    <t>No hacer que el contenido persiga al usuario(banners por ejemplo)</t>
-  </si>
-  <si>
-    <t>Piensa que los bots de Google son usuarios normales</t>
-  </si>
-  <si>
-    <t>Evitar que la pagina sea de usos múltiples</t>
-  </si>
-  <si>
-    <t>No usar colores psicodélicos</t>
-  </si>
-  <si>
     <t>Pensar en la aplicación para Google Chrome</t>
   </si>
   <si>
-    <t>Títulos que expliquen la pagina</t>
-  </si>
-  <si>
-    <t>No hacer párrafos tan largos</t>
-  </si>
-  <si>
-    <t>Motivar siempre a la acción y/o reacción</t>
-  </si>
-  <si>
     <t>ofrecer información concisa y puntual de precios y productos</t>
+  </si>
+  <si>
+    <t>En las preguntas frecuentes no se hace publicidad en las preguntas</t>
+  </si>
+  <si>
+    <t>Diseño agradable</t>
+  </si>
+  <si>
+    <t>Diseñarla para navegadores populares</t>
+  </si>
+  <si>
+    <t>Hacerla intuitiva
+Facilitar la estadía con colores agradables
+No usar colores psicodélicos
+Títulos que expliquen la pagina</t>
+  </si>
+  <si>
+    <t>Mostrar productos pagos claramente</t>
+  </si>
+  <si>
+    <t>Contenidos inteligentes</t>
+  </si>
+  <si>
+    <t>Incluir espacios para publicidad</t>
+  </si>
+  <si>
+    <t>Darle mas importancia al contenido que a la publicidad
+Planificar la publicidad para que se vea siempre sin distraer o molestar</t>
+  </si>
+  <si>
+    <t>La pagina la van a usar personas excitadas/aceleradas, debe tener un rendimiento excelente en su performance
+No obligar de primera mano a registrarse, se debe inducir al registro 
+Evitar que la pagina sea de usos múltiples</t>
+  </si>
+  <si>
+    <t>Evitar la redundancia o contenido que no aporte valor, pensar en todo para que sume
+Debe tener una letra personalizada
+Piensa que los bots de Google son usuarios normales
+Evitar enlaces rotos
+Actualizar el top de la pagina siempre(top perfiles, fotos, videos o lo que sea)
+No hacer que el contenido persiga al usuario(banners por ejemplo)
+Hacerla ligera, sin desorden ni exceso de información
+Los multimedia no se deben reproducir automáticamente
+Ordenar elegantemente el contenido
+sin errores gramáticos
+Incorporar SEO
+Duplicidad de contenido
+Usar imágenes no genéricas
+los contenidos deben provenir de base datos, y toda la aplicación debe recibirlos por parámetros de bd
+Motivar siempre a la acción y/o reacción
+Buscar tendencias en las palabras para elaborar los Keywords
+Pensar muy bien los keywords para hacer la pagina mas accesible
+No hacer párrafos tan largos</t>
+  </si>
+  <si>
+    <t>Herramientas</t>
+  </si>
+  <si>
+    <t>No usar flash
+toda la aplicación debe ser configurada por parámetros de bd</t>
+  </si>
+  <si>
+    <t>Requerimientos No Funcionales</t>
+  </si>
+  <si>
+    <t>Requerimientos Funcionales</t>
+  </si>
+  <si>
+    <t>Debe anunciar si esta errado, no hacerlo como alarma</t>
+  </si>
+  <si>
+    <t>Entender el publico al que se dirige</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -286,10 +266,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -605,418 +594,288 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBE675A-9AFD-467E-8266-7E3DA57C2A9F}">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="70.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="2" max="2" width="75.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
+    <row r="1" spans="1:2" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="43" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="46" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB5BEDA-8F17-4592-BDB7-DD9376D95610}">
-  <dimension ref="A1:B35"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="68.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>